--- a/code/数据库设计/玩家设计.xlsx
+++ b/code/数据库设计/玩家设计.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\模拟三国\Three-Kindoms\code\数据库设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A029AF9F-3478-49DF-8948-10D59A5328B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,21 +362,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A45"/>
+      <selection activeCell="B45" sqref="A2:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,226 +387,6 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
